--- a/Основы бизнеса/ЛР2_Коршун_ФИТ_5/Лабораторная работа 2.xlsx
+++ b/Основы бизнеса/ЛР2_Коршун_ФИТ_5/Лабораторная работа 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\labs_4-1\Основы бизнеса\ЛР2_Коршун_ФИТ_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0735CFED-C713-4E1D-89E3-6139B1740E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF54FA15-7738-47A3-85A1-D26FEECD913A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1 исх данные, решение" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="88">
   <si>
     <t>Показатель</t>
   </si>
@@ -695,6 +695,24 @@
       </rPr>
       <t xml:space="preserve"> – налог на прибыль (20% от прибыли отчетного периода)</t>
     </r>
+  </si>
+  <si>
+    <t>НДС = В ∙ Сндс / (1+Сндс)</t>
+  </si>
+  <si>
+    <t>0,2*Потч</t>
+  </si>
+  <si>
+    <t>ЧПдив = ЧПр ∙ Дчп див / 100</t>
+  </si>
+  <si>
+    <t>Дприв.ак = Nак ∙ Цак ∙ Dприв.ак∙ Rприв.ак / (100 ∙ 100)</t>
+  </si>
+  <si>
+    <t>Rпр.ак = Дпр.ак ∙ 100 / (Nак ∙ (100 - Dприв.ак) ∙ Цак</t>
+  </si>
+  <si>
+    <t>Ставка НДС на 2024г.</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1069,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1075,7 +1093,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1154,6 +1171,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1172,11 +1195,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1458,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="110" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1469,40 +1492,50 @@
     <col min="1" max="1" width="55.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A2" s="26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:16" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="44"/>
-    </row>
-    <row r="5" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="41"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="45"/>
+      <c r="L4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O4">
+        <v>20</v>
+      </c>
+      <c r="P4">
+        <f>O4/100</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="42"/>
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -1534,7 +1567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:16" ht="16.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1569,7 +1602,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1604,7 +1637,7 @@
         <v>6950</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -1639,7 +1672,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:16" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
@@ -1674,7 +1707,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:16" ht="17.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="6" t="s">
         <v>33</v>
       </c>
@@ -1709,7 +1742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
@@ -1744,7 +1777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:16" ht="16.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="8" t="s">
         <v>23</v>
       </c>
@@ -1779,7 +1812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="26.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:16" ht="26.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -1814,7 +1847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="26.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:16" ht="26.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1849,7 +1882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:16" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1884,7 +1917,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:16" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -1919,7 +1952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:12" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1954,237 +1987,264 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="47"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="9"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="10" t="s">
+    <row r="18" spans="1:12" ht="16.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="40"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="B19" s="11">
+        <f>B6*P4/(1+P4)</f>
+        <v>1750</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="B20" s="11">
-        <f>B6 * 20 / 120</f>
-        <v>1750</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+        <f>B6-B19-B7</f>
+        <v>1400</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="10" t="s">
-        <v>29</v>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A21" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B21" s="11">
-        <f>B6 - B20 - B7</f>
-        <v>1400</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+        <f>B8+B9+B10+B11+B20</f>
+        <v>1874</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="10" t="s">
-        <v>16</v>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B22" s="11">
-        <f>B21 + B10 + B11</f>
-        <v>1462</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+        <f>0.2*B21</f>
+        <v>374.8</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="10" t="s">
-        <v>17</v>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="B23" s="11">
-        <f>B22 * 20 / 100</f>
-        <v>292.39999999999998</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+        <f>B21-B22</f>
+        <v>1499.2</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="10" t="s">
-        <v>18</v>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="B24" s="11">
-        <f>B22 - B23</f>
-        <v>1169.5999999999999</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+        <f>B23-B13</f>
+        <v>1487.2</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="10" t="s">
-        <v>19</v>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="B25" s="11">
-        <f>B24 - B8 - B13</f>
-        <v>1025.5999999999999</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+        <f>B24*B14/100</f>
+        <v>74.36</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="10" t="s">
-        <v>11</v>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="B26" s="11">
-        <f>B25 * B14 / 100</f>
-        <v>51.28</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+        <f>(B12*B15*B16*B17)/(100*100)</f>
+        <v>8.64</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="10" t="s">
-        <v>20</v>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="B27" s="11">
-        <f>B15 * B12 * B16 / 100 * B16 / 100</f>
-        <v>4.8</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+        <f>B25-B26</f>
+        <v>65.72</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="11">
-        <f>B26 - B27</f>
-        <v>46.480000000000004</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="10" t="s">
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="14">
-        <f>(B15 *1000) * (1-(B16 / 100))</f>
+      <c r="B28" s="47">
+        <f>(B15-(B15*B16/100))*1000</f>
         <v>10800</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="10" t="s">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="B29" s="11">
+        <f>B27*1000*100/(B15*1000*(100-B16)*B12)*100</f>
+        <v>15.212962962962964</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="B30" s="11">
-        <f>(B28 * 100) / B29 * B12</f>
-        <v>17.214814814814815</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="11">
-        <f>B28 * 1000 / B29</f>
-        <v>4.3037037037037047</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
+        <f>B12*B29/100</f>
+        <v>6.0851851851851855</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2200,8 +2260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2210,141 +2270,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="33.75" x14ac:dyDescent="0.45">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="38.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="51.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="23" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A26" s="16"/>
+      <c r="A26" s="15"/>
     </row>
     <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A27" s="17"/>
+      <c r="A27" s="16"/>
     </row>
     <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A28" s="17"/>
+      <c r="A28" s="16"/>
     </row>
     <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A29" s="17"/>
+      <c r="A29" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2356,7 +2416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView zoomScale="113" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -2367,39 +2427,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="41"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -2432,924 +2492,924 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <v>3</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="32">
         <v>4</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="32">
         <v>5</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="32">
         <v>6</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="32">
         <v>7</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="32">
         <v>8</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="32">
         <v>9</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="32">
         <v>10</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="32">
         <v>11</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="32">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="29">
         <f>SUM(B6:B17)</f>
         <v>100</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="29">
         <f t="shared" ref="C5:K5" si="0">SUM(C6:C17)</f>
         <v>100</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="29">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="29">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="29">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="29">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="29">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="29">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="29">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="29">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="29">
         <v>30</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="29">
         <v>20</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="29">
         <v>15</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="29">
         <v>40</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="29">
         <v>25</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="29">
         <v>5</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="29">
         <v>10</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="29">
         <v>30</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="29">
         <v>5</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="29">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="29">
         <v>20</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="29">
         <v>10</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="29">
         <v>15</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="29">
         <v>10</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="29">
         <v>20</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="29">
         <v>20</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="29">
         <v>15</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="29">
         <v>5</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="29">
         <v>10</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="29">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="29">
         <v>50</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="29">
         <v>40</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="29">
         <v>20</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="29">
         <v>10</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="29">
         <v>10</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="29">
         <v>15</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="29">
         <v>15</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="29">
         <v>5</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="29">
         <v>10</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="29">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30">
+      <c r="B9" s="29"/>
+      <c r="C9" s="29">
         <v>30</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="29">
         <v>20</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="29">
         <v>10</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="29">
         <v>15</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="29">
         <v>25</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="29">
         <v>10</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="29">
         <v>5</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="29">
         <v>10</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29">
         <v>30</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="29">
         <v>15</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="29">
         <v>5</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="29">
         <v>10</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="29">
         <v>25</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="29">
         <v>5</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="29">
         <v>5</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29">
         <v>15</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="29">
         <v>20</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="29">
         <v>5</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="29">
         <v>5</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="29">
         <v>10</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="29">
         <v>5</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29">
         <v>5</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="29">
         <v>10</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="29">
         <v>5</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="29">
         <v>10</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="29">
         <v>15</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="29">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29">
         <v>10</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="29">
         <v>10</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="29">
         <v>15</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="29">
         <v>10</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K13" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29">
         <v>5</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="29">
         <v>10</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="29">
         <v>5</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29">
         <v>5</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="29">
         <v>5</v>
       </c>
-      <c r="K15" s="30">
+      <c r="K15" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29">
         <v>20</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="29">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="K18" s="30" t="s">
+      <c r="K18" s="29" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="29">
         <v>105</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="29">
         <v>220</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="29">
         <v>128</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="29">
         <v>300</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="29">
         <v>260</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="29">
         <v>180</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="29">
         <v>94</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="29">
         <v>146</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="29">
         <v>232</v>
       </c>
-      <c r="K19" s="30">
+      <c r="K19" s="29">
         <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <f>B19 * B6 / 100</f>
         <v>31.5</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>100</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <v>100</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <v>100</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>100</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>100</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <v>100</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="10">
         <v>100</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="10">
         <v>100</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="10">
         <v>100</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <f xml:space="preserve"> B7 / (B7 + B8) *100</f>
         <v>28.571428571428569</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <f xml:space="preserve"> B8 / (B7 + B8) *100</f>
         <v>71.428571428571431</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="36">
+      <c r="B37" s="35">
         <f>B21*B24/100</f>
         <v>8.9999999999999982</v>
       </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="36">
+      <c r="B38" s="35">
         <f>B21 * B25/100</f>
         <v>22.5</v>
       </c>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A45" s="35" t="s">
+      <c r="A45" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A46" s="35" t="s">
+      <c r="A46" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3375,42 +3435,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="36" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="37" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="36" t="s">
         <v>78</v>
       </c>
     </row>
